--- a/Users Loads35.xlsx
+++ b/Users Loads35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.215541498045519</v>
+        <v>2.327471241882144</v>
       </c>
       <c r="C2" t="n">
-        <v>4.118744535405108</v>
+        <v>4.829502543438639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2390332213565657</v>
+        <v>0.1746131968271001</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.284473769062276</v>
+        <v>3.305927585120454</v>
       </c>
       <c r="C3" t="n">
-        <v>5.014281962226476</v>
+        <v>6.445296899105249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2870375915809169</v>
+        <v>0.4663794320823759</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.940520756387436</v>
+        <v>3.785924475317406</v>
       </c>
       <c r="C4" t="n">
-        <v>4.88509210350239</v>
+        <v>6.268315590597367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4779889215094425</v>
+        <v>0.6553044231686145</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.143818877489936</v>
+        <v>4.107045321413485</v>
       </c>
       <c r="C5" t="n">
-        <v>4.382527249177878</v>
+        <v>4.012289137517778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1765459224691465</v>
+        <v>0.7235254333837001</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.355703512314896</v>
+        <v>6.19645194445777</v>
       </c>
       <c r="C6" t="n">
-        <v>4.446711631935243</v>
+        <v>6.399452090315658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6572441727821571</v>
+        <v>0.4227766085635695</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.778188123017937</v>
+        <v>6.379710600716291</v>
       </c>
       <c r="C7" t="n">
-        <v>2.027030631772083</v>
+        <v>1.953512765606774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3184582845406244</v>
+        <v>0.1926437880603313</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.920784546131316</v>
+        <v>8.657643171774559</v>
       </c>
       <c r="C8" t="n">
-        <v>2.967237757321458</v>
+        <v>4.945653172510522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367288429752424</v>
+        <v>0.2727043997713135</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.248939997159221</v>
+        <v>11.20365479859317</v>
       </c>
       <c r="C9" t="n">
-        <v>2.263335955140701</v>
+        <v>3.743470011778199</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4184297106398288</v>
+        <v>0.2027210999322091</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2975665857097</v>
+        <v>11.23282045254256</v>
       </c>
       <c r="C10" t="n">
-        <v>7.589417258097936</v>
+        <v>3.894678263193009</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7596097893019704</v>
+        <v>0.1840748687509773</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.41142115766361</v>
+        <v>11.73006034222763</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645017010948959</v>
+        <v>4.752548626245004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3652300089302432</v>
+        <v>0.4403401211925941</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.81190212592068</v>
+        <v>11.78049975038272</v>
       </c>
       <c r="C12" t="n">
-        <v>1.895419043661556</v>
+        <v>6.312448077276775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2164352865294931</v>
+        <v>0.6854407832750331</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.02032229694992</v>
+        <v>12.77296609791603</v>
       </c>
       <c r="C13" t="n">
-        <v>5.947667727898756</v>
+        <v>4.545801566328374</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7205507865859961</v>
+        <v>0.8877828481434193</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.58176092678241</v>
+        <v>12.85638933735112</v>
       </c>
       <c r="C14" t="n">
-        <v>3.994576514485716</v>
+        <v>3.311578341394556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4266837998467475</v>
+        <v>0.3803629665227019</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.12142750123757</v>
+        <v>15.05672303670376</v>
       </c>
       <c r="C15" t="n">
-        <v>2.474669758917925</v>
+        <v>8.450214865748618</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1744511058417562</v>
+        <v>0.6575218455103734</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4308610666622</v>
+        <v>16.02145589111111</v>
       </c>
       <c r="C16" t="n">
-        <v>3.427235900744515</v>
+        <v>4.939620810435407</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4310425341364675</v>
+        <v>0.4130296415972716</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16.79604425717883</v>
+        <v>16.37632155805292</v>
       </c>
       <c r="C17" t="n">
-        <v>4.671071503727457</v>
+        <v>6.217136712671365</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3168946814484137</v>
+        <v>0.7385896536974761</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.10319970354778</v>
+        <v>18.01704401595525</v>
       </c>
       <c r="C18" t="n">
-        <v>5.670496272504658</v>
+        <v>8.473833365792746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7154400850672062</v>
+        <v>0.5832924832656359</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.80526256269691</v>
+        <v>19.27890856315997</v>
       </c>
       <c r="C19" t="n">
-        <v>2.885711314113832</v>
+        <v>6.748095594179223</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2195233463361301</v>
+        <v>0.1231275037897915</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.82736847954614</v>
+        <v>19.33578628413552</v>
       </c>
       <c r="C20" t="n">
-        <v>6.789635182899363</v>
+        <v>8.481201511369967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3235938075332721</v>
+        <v>0.46880806606036</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.19265282769121</v>
+        <v>19.53162349086844</v>
       </c>
       <c r="C21" t="n">
-        <v>4.40425349295958</v>
+        <v>5.245893765507393</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1006899548318228</v>
+        <v>0.1937233629149111</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.99072147061807</v>
+        <v>21.44725564877725</v>
       </c>
       <c r="C22" t="n">
-        <v>1.548748648400902</v>
+        <v>3.798417707524282</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1743669797236859</v>
+        <v>0.6995275150238878</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.09218064008927</v>
+        <v>22.14777576083156</v>
       </c>
       <c r="C23" t="n">
-        <v>7.381770787753397</v>
+        <v>2.834837210032911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.696749963600285</v>
+        <v>0.2657694147463561</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.04605027635656</v>
+        <v>22.87696784324239</v>
       </c>
       <c r="C24" t="n">
-        <v>2.806081865834922</v>
+        <v>6.833334870003135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4178441861551283</v>
+        <v>0.2506914563606605</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.8254417553121</v>
+        <v>24.03134730786505</v>
       </c>
       <c r="C25" t="n">
-        <v>1.851086347298722</v>
+        <v>2.696523597251166</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3191987558631931</v>
+        <v>0.1673413690873652</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.20760404078172</v>
+        <v>24.74280363913175</v>
       </c>
       <c r="C26" t="n">
-        <v>3.189501042422821</v>
+        <v>3.446795966156164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3764212841233682</v>
+        <v>0.3087092481704978</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.67339869521784</v>
+        <v>25.52104633674561</v>
       </c>
       <c r="C27" t="n">
-        <v>5.244064589398191</v>
+        <v>2.913451849945373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5153484869118701</v>
+        <v>0.2040326306028404</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.8942962180851</v>
+        <v>30.43253054618568</v>
       </c>
       <c r="C28" t="n">
-        <v>1.280312352282978</v>
+        <v>2.810867641947567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3583976949514029</v>
+        <v>0.3033166372127065</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.08083109257189</v>
+        <v>30.82894515860292</v>
       </c>
       <c r="C29" t="n">
-        <v>5.821343376214722</v>
+        <v>4.251198949044482</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5448926352750638</v>
+        <v>0.5521374490564985</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32.34599581822668</v>
+        <v>32.5939944920163</v>
       </c>
       <c r="C30" t="n">
-        <v>4.628695034050949</v>
+        <v>4.270947030087213</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6903423992652395</v>
+        <v>0.5306794870720775</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32.86921426049849</v>
+        <v>35.46821719808077</v>
       </c>
       <c r="C31" t="n">
-        <v>2.265835667704756</v>
+        <v>5.086298867466136</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3587661622994144</v>
+        <v>0.3961842567720261</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.95378033030329</v>
+        <v>35.62354753721063</v>
       </c>
       <c r="C32" t="n">
-        <v>6.894961838838456</v>
+        <v>7.021929555168325</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7165315524642841</v>
+        <v>0.4778697359178325</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.09643399577558</v>
+        <v>35.82049578489458</v>
       </c>
       <c r="C33" t="n">
-        <v>2.873735696233725</v>
+        <v>3.871294358889612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4580307560365953</v>
+        <v>0.6976849490725554</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.54608608786033</v>
+        <v>36.05664616924993</v>
       </c>
       <c r="C34" t="n">
-        <v>3.058394150317309</v>
+        <v>8.541953620892235</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2187747362439875</v>
+        <v>0.3380514209356345</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38.74050218389509</v>
+        <v>36.06962302977435</v>
       </c>
       <c r="C35" t="n">
-        <v>3.639115940861015</v>
+        <v>4.194621867044076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2156890446621925</v>
+        <v>0.6154426142137667</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.33832988437193</v>
+        <v>36.17160199182386</v>
       </c>
       <c r="C36" t="n">
-        <v>6.719573168639259</v>
+        <v>3.250489494004411</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6085045664471919</v>
+        <v>0.3449237727026367</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.5829469583656</v>
+        <v>37.72617829262004</v>
       </c>
       <c r="C37" t="n">
-        <v>3.857209437434133</v>
+        <v>1.757175512468471</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1460438082947456</v>
+        <v>0.3114942299611801</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44.83864914092495</v>
+        <v>39.18774809994321</v>
       </c>
       <c r="C38" t="n">
-        <v>6.774465151072077</v>
+        <v>1.697140844218586</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3458973789840485</v>
+        <v>0.2412449655815069</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44.89762621094958</v>
+        <v>39.88675990131383</v>
       </c>
       <c r="C39" t="n">
-        <v>4.687657929603059</v>
+        <v>4.871420574829799</v>
       </c>
       <c r="D39" t="n">
-        <v>0.539926544201677</v>
+        <v>0.2220923917319668</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>45.96340743846368</v>
+        <v>40.84317640732117</v>
       </c>
       <c r="C40" t="n">
-        <v>6.785089756225283</v>
+        <v>3.655883619445027</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8640916741207932</v>
+        <v>0.3462879702824995</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47.00046469152562</v>
+        <v>41.82251525051181</v>
       </c>
       <c r="C41" t="n">
-        <v>7.580201943726374</v>
+        <v>3.504681527122382</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6237363813081724</v>
+        <v>0.2558396260065148</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.99040294120918</v>
+        <v>41.93675221628116</v>
       </c>
       <c r="C42" t="n">
-        <v>3.222269123398172</v>
+        <v>1.570558686363106</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3546642496888875</v>
+        <v>0.2324375672565697</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.19852168462214</v>
+        <v>42.93605009407447</v>
       </c>
       <c r="C43" t="n">
-        <v>4.651602352187939</v>
+        <v>5.130092220402783</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9651896957356071</v>
+        <v>0.4544715934937693</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.70608300259596</v>
+        <v>43.54596856127769</v>
       </c>
       <c r="C44" t="n">
-        <v>6.049574333497403</v>
+        <v>2.161120542096437</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7356587160814182</v>
+        <v>0.4173866258420021</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.88707522779914</v>
+        <v>45.73336237096467</v>
       </c>
       <c r="C45" t="n">
-        <v>2.485907319144468</v>
+        <v>4.143757250472867</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4283130037086201</v>
+        <v>0.6663347274420212</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>50.02722621380036</v>
+        <v>48.53138409836408</v>
       </c>
       <c r="C46" t="n">
-        <v>8.115251945699969</v>
+        <v>5.039395861844831</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7070575813973774</v>
+        <v>0.3501626781803782</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52.60523745912695</v>
+        <v>49.66134895490395</v>
       </c>
       <c r="C47" t="n">
-        <v>3.436007758041482</v>
+        <v>3.231778214063317</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7582327299350315</v>
+        <v>0.2355923849051108</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54.82324614486348</v>
+        <v>50.3145299516099</v>
       </c>
       <c r="C48" t="n">
-        <v>3.15897130141151</v>
+        <v>6.590495259102587</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1316975965890524</v>
+        <v>0.544651884536659</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.55619630731522</v>
+        <v>50.48573207666598</v>
       </c>
       <c r="C49" t="n">
-        <v>4.345977327990868</v>
+        <v>5.913234393570141</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4012414825255605</v>
+        <v>0.5787652059736099</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.62057744703247</v>
+        <v>53.41662333340977</v>
       </c>
       <c r="C50" t="n">
-        <v>1.339708320723222</v>
+        <v>3.370704621165292</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2135557315651204</v>
+        <v>0.4496541866068355</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.72469547222805</v>
+        <v>54.27790594925093</v>
       </c>
       <c r="C51" t="n">
-        <v>3.155954662163308</v>
+        <v>5.586589861004875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2665389062056953</v>
+        <v>0.5216706837697421</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>57.46411402506341</v>
+        <v>54.42427402562666</v>
       </c>
       <c r="C52" t="n">
-        <v>4.432421736041462</v>
+        <v>2.892229063505367</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3142792070900375</v>
+        <v>0.4458286073005302</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>57.71575457824534</v>
+        <v>57.0199484372074</v>
       </c>
       <c r="C53" t="n">
-        <v>6.89804275782484</v>
+        <v>4.524135109535008</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5527829720177699</v>
+        <v>0.4665647840241252</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>60.77486932511909</v>
+        <v>60.30373006820761</v>
       </c>
       <c r="C54" t="n">
-        <v>5.09422573530897</v>
+        <v>3.751974157223592</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3662179179907282</v>
+        <v>0.506180225086437</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>60.87087050316319</v>
+        <v>60.54052532416732</v>
       </c>
       <c r="C55" t="n">
-        <v>5.325562778785118</v>
+        <v>4.332986395685349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.464202814848127</v>
+        <v>0.8342601805971347</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>62.18323677223199</v>
+        <v>61.02337856330775</v>
       </c>
       <c r="C56" t="n">
-        <v>6.897328182502509</v>
+        <v>7.83650483126767</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6783818216316757</v>
+        <v>0.5268010816990747</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>62.8393957372677</v>
+        <v>61.72192772852576</v>
       </c>
       <c r="C57" t="n">
-        <v>2.7771244214263</v>
+        <v>3.14895949563537</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1486489931923715</v>
+        <v>0.4047176567563899</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62.92922801079356</v>
+        <v>62.22686206442355</v>
       </c>
       <c r="C58" t="n">
-        <v>3.7183088248327</v>
+        <v>4.70481027284228</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5981106029385812</v>
+        <v>0.655679508821596</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>63.01805595320166</v>
+        <v>62.33559069114151</v>
       </c>
       <c r="C59" t="n">
-        <v>7.182914400212272</v>
+        <v>3.798247805247511</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6121018810357768</v>
+        <v>0.5325985809490394</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>63.13446928466706</v>
+        <v>62.58909704152624</v>
       </c>
       <c r="C60" t="n">
-        <v>3.076711054687413</v>
+        <v>2.861515555996057</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3405649747689071</v>
+        <v>0.1957392015701974</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>63.69348849292666</v>
+        <v>64.63444385531714</v>
       </c>
       <c r="C61" t="n">
-        <v>1.946855338569086</v>
+        <v>4.162967504656901</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3003153043465703</v>
+        <v>0.2963310968409171</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>64.03537988257843</v>
+        <v>65.19414391746959</v>
       </c>
       <c r="C62" t="n">
-        <v>6.329104180877001</v>
+        <v>4.234568298582244</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227036399057387</v>
+        <v>0.2573156264583</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65.44530400918993</v>
+        <v>68.60116671087836</v>
       </c>
       <c r="C63" t="n">
-        <v>4.118905596677215</v>
+        <v>1.884021519660236</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9378006421701978</v>
+        <v>0.2680237213534047</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65.78644785082514</v>
+        <v>68.78034314354898</v>
       </c>
       <c r="C64" t="n">
-        <v>7.098361008726943</v>
+        <v>4.821809443127846</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7327640035939875</v>
+        <v>0.5007679040784236</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.11627470854097</v>
+        <v>68.8384848861683</v>
       </c>
       <c r="C65" t="n">
-        <v>3.892603643121955</v>
+        <v>1.854540860928383</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1280412967486119</v>
+        <v>0.3527628900986832</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.02269033918466</v>
+        <v>70.75514424960947</v>
       </c>
       <c r="C66" t="n">
-        <v>4.441879934784104</v>
+        <v>6.428561933905389</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1722090104567525</v>
+        <v>0.4768805566338393</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67.96056581858872</v>
+        <v>70.96751652028782</v>
       </c>
       <c r="C67" t="n">
-        <v>5.741526831786413</v>
+        <v>5.120764285743968</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7561052410901593</v>
+        <v>0.7152815047206228</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>69.01701140883712</v>
+        <v>71.35727253630591</v>
       </c>
       <c r="C68" t="n">
-        <v>3.058924304726828</v>
+        <v>5.461255106289439</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5224071945010828</v>
+        <v>0.6798588629731563</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69.04447725133026</v>
+        <v>71.38531434429285</v>
       </c>
       <c r="C69" t="n">
-        <v>2.981106407175183</v>
+        <v>5.48125559461231</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6410477793514261</v>
+        <v>0.4822587924000504</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>69.07165511487837</v>
+        <v>73.83294637873981</v>
       </c>
       <c r="C70" t="n">
-        <v>6.836575387686477</v>
+        <v>6.637386698150566</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4652299425747745</v>
+        <v>0.5835286866279961</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>71.90708174908607</v>
+        <v>74.12594683856734</v>
       </c>
       <c r="C71" t="n">
-        <v>6.35511800371218</v>
+        <v>6.40603556008473</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6959937110038391</v>
+        <v>0.5662039430315056</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.76693574849673</v>
+        <v>75.00696659803133</v>
       </c>
       <c r="C72" t="n">
-        <v>4.344737343837867</v>
+        <v>6.151873258217648</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5022740641258289</v>
+        <v>0.4319278845124873</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77.89769109084949</v>
+        <v>76.36705543935395</v>
       </c>
       <c r="C73" t="n">
-        <v>8.800772960366615</v>
+        <v>2.424578255108773</v>
       </c>
       <c r="D73" t="n">
-        <v>0.489689731544482</v>
+        <v>0.27355027465927</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>78.0347647359629</v>
+        <v>76.44843965595804</v>
       </c>
       <c r="C74" t="n">
-        <v>7.241913927499025</v>
+        <v>7.627154446930153</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5180011751193728</v>
+        <v>0.7303065900966264</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>78.19200016793215</v>
+        <v>76.47058466235433</v>
       </c>
       <c r="C75" t="n">
-        <v>1.587610402289022</v>
+        <v>4.500713799378399</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2411084054776392</v>
+        <v>0.5345119626109007</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>79.57294781957799</v>
+        <v>77.77181345138604</v>
       </c>
       <c r="C76" t="n">
-        <v>3.479740986981783</v>
+        <v>4.153195320680116</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2371933506686807</v>
+        <v>0.5623115803469976</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>80.73373740569295</v>
+        <v>79.79023467671294</v>
       </c>
       <c r="C77" t="n">
-        <v>2.554705193416121</v>
+        <v>6.375358672159002</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3056423233036455</v>
+        <v>0.7410869941242073</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>80.90376696731938</v>
+        <v>81.72522266341406</v>
       </c>
       <c r="C78" t="n">
-        <v>3.51258028645932</v>
+        <v>2.522226245600302</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3884925151475875</v>
+        <v>0.2938543110245608</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>82.42060131326797</v>
+        <v>81.90513438485597</v>
       </c>
       <c r="C79" t="n">
-        <v>6.814652574326536</v>
+        <v>5.969418317202718</v>
       </c>
       <c r="D79" t="n">
-        <v>0.71769875089751</v>
+        <v>0.8197138254194286</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>82.93674815268338</v>
+        <v>82.22750010309458</v>
       </c>
       <c r="C80" t="n">
-        <v>6.08728848416956</v>
+        <v>2.997706798740544</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5881863881657514</v>
+        <v>0.2963064569849272</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>84.70831574315361</v>
+        <v>82.41369380976063</v>
       </c>
       <c r="C81" t="n">
-        <v>3.575205731165605</v>
+        <v>4.487696837843892</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4086409633065332</v>
+        <v>0.4897618579950706</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>85.24069442491816</v>
+        <v>85.45593289930723</v>
       </c>
       <c r="C82" t="n">
-        <v>4.329551835596463</v>
+        <v>1.512937333697069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.494490372824616</v>
+        <v>0.2225497217723463</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>85.56445362769257</v>
+        <v>85.77136932517647</v>
       </c>
       <c r="C83" t="n">
-        <v>5.68653004049256</v>
+        <v>4.613598479764921</v>
       </c>
       <c r="D83" t="n">
-        <v>0.464738435047216</v>
+        <v>0.694190807083397</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>86.22570918468233</v>
+        <v>87.23306799409774</v>
       </c>
       <c r="C84" t="n">
-        <v>4.472896018750547</v>
+        <v>7.256793908054169</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9579743292673074</v>
+        <v>0.5135733461655694</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>86.78584530612908</v>
+        <v>87.48238262119951</v>
       </c>
       <c r="C85" t="n">
-        <v>3.390386560644288</v>
+        <v>1.95924790966744</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4643490726462407</v>
+        <v>0.3943174175300281</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.58583418066615</v>
+        <v>87.59410961264295</v>
       </c>
       <c r="C86" t="n">
-        <v>5.84185004096264</v>
+        <v>6.706418474773187</v>
       </c>
       <c r="D86" t="n">
-        <v>1.020409251952802</v>
+        <v>0.4615834774273667</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>88.48666483241361</v>
+        <v>88.92221319160595</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41544896383382</v>
+        <v>5.033837456217715</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2271578588929541</v>
+        <v>0.3132293824046146</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>91.83082947866376</v>
+        <v>90.63333420855059</v>
       </c>
       <c r="C88" t="n">
-        <v>6.171743950793184</v>
+        <v>2.340519902333294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7727998905043969</v>
+        <v>0.2263578223548952</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,97 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.03049304567261</v>
+        <v>91.06532136340007</v>
       </c>
       <c r="C89" t="n">
-        <v>5.207986330255169</v>
+        <v>3.000669090117552</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5444202262875886</v>
+        <v>0.2318711381358164</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>91.69418049727518</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.155651059830271</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3319049382044894</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>91.78320994962625</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.361916843499115</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4302607099392314</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>92.99581105740805</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.329094007069411</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4030853598185782</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>94.37965247427796</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.65205987609785</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.6132839477590486</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>97.3272301140683</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.163845085384073</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5326493981802906</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>97.32966396900012</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.153942070042687</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3429466667611089</v>
       </c>
     </row>
   </sheetData>
